--- a/analyses/pronovo-2020/DI Index for Figure_from_Rick.xlsx
+++ b/analyses/pronovo-2020/DI Index for Figure_from_Rick.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lit values" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="our values" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Raw %mol for our samples" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Megan's 2020 peptidomic calcs." sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Megan's 2020 Lee 84 VERTEX calc" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="117">
   <si>
     <t xml:space="preserve">AA</t>
   </si>
@@ -319,6 +321,60 @@
   </si>
   <si>
     <t xml:space="preserve">7 155m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan's table: relative molar abundance of suspended particulate amino acids from Table 6 data Lee et al. 1984 VERTEX II Mexico site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI 98 coefficient values (static)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thr+Gly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-ala</t>
   </si>
 </sst>
 </file>
@@ -328,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -359,6 +415,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -422,13 +483,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -437,6 +498,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -511,7 +580,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -658,11 +727,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54456814"/>
-        <c:axId val="96875341"/>
+        <c:axId val="25592257"/>
+        <c:axId val="97398829"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54456814"/>
+        <c:axId val="25592257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,12 +797,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96875341"/>
+        <c:crossAx val="97398829"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96875341"/>
+        <c:axId val="97398829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +868,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54456814"/>
+        <c:crossAx val="25592257"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -831,7 +900,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1117,11 +1186,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89129774"/>
-        <c:axId val="71889512"/>
+        <c:axId val="37540992"/>
+        <c:axId val="13472464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89129774"/>
+        <c:axId val="37540992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,12 +1222,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71889512"/>
+        <c:crossAx val="13472464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71889512"/>
+        <c:axId val="13472464"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1190,7 +1259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89129774"/>
+        <c:crossAx val="37540992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,16 +1295,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>153000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>747360</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1243,8 +1312,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16247160" y="3066840"/>
-        <a:ext cx="5778000" cy="3723840"/>
+        <a:off x="19036440" y="3510720"/>
+        <a:ext cx="5780880" cy="3723480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1259,13 +1328,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>495360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1273,8 +1342,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14506920" y="5200560"/>
-        <a:ext cx="3759120" cy="4343040"/>
+        <a:off x="14514840" y="5711400"/>
+        <a:ext cx="3760920" cy="4342680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1295,10 +1364,10 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="A4:K4 B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="24.57"/>
@@ -1965,13 +2034,13 @@
   </sheetPr>
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="1" sqref="A4:K4 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
@@ -1983,7 +2052,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="66"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2169,7 @@
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">((B2-AF2)/AG2)*$AH2</f>
-        <v>-0.229909447012345</v>
+        <v>-0.229909447012344</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4.00929255023583</v>
@@ -2111,7 +2180,7 @@
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">((E2-$AF2)/$AG2)*$AH2</f>
-        <v>0.0513022967647428</v>
+        <v>0.0513022967647431</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>4.46149102820044</v>
@@ -2133,7 +2202,7 @@
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">((K2-$AF2)/$AG2)*$AH2</f>
-        <v>-0.0430914414612343</v>
+        <v>-0.0430914414612349</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>4.16361642875945</v>
@@ -2144,7 +2213,7 @@
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">((N2-$AF2)/$AG2)*$AH2</f>
-        <v>6.7291653683653E-005</v>
+        <v>6.72916536839479E-005</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>4.34255755539816</v>
@@ -2162,11 +2231,11 @@
       </c>
       <c r="U2" s="0" t="n">
         <f aca="false">((T2-7.1)/1.5)*$AH2</f>
-        <v>0.255054298360755</v>
+        <v>0.255054298360754</v>
       </c>
       <c r="V2" s="0" t="n">
         <f aca="false">((T2-$AF2)/$AG2)*$AH2</f>
-        <v>0.00981606815031082</v>
+        <v>0.00981606815030935</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>4.1953873600822</v>
@@ -2177,7 +2246,7 @@
       </c>
       <c r="Y2" s="0" t="n">
         <f aca="false">((W2-$AF2)/$AG2)*$AH2</f>
-        <v>-0.0104805499653614</v>
+        <v>-0.0104805499653629</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>3.76322724520251</v>
@@ -2188,18 +2257,18 @@
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">((Z2-$AF2)/$AG2)*$AH2</f>
-        <v>0.132995144829775</v>
+        <v>0.132995144829774</v>
       </c>
       <c r="AC2" s="0" t="n">
         <v>3.41842820020927</v>
       </c>
       <c r="AD2" s="0" t="n">
         <f aca="false">((AC2-7.1)/1.5)*$AH2</f>
-        <v>0.316615174782002</v>
+        <v>0.316615174782003</v>
       </c>
       <c r="AE2" s="0" t="n">
         <f aca="false">((AC2-$AF2)/$AG2)*$AH2</f>
-        <v>0.247467260237454</v>
+        <v>0.247467260237456</v>
       </c>
       <c r="AF2" s="0" t="n">
         <f aca="false">AVERAGE(B2,E2,H2,K2,N2,Q2,T2,W2,Z2,AC2)</f>
@@ -2207,7 +2276,7 @@
       </c>
       <c r="AG2" s="0" t="n">
         <f aca="false">STDEV(B2,E2,H2,K2,N2,Q2,T2,W2,Z2,AC2)</f>
-        <v>0.388558179830258</v>
+        <v>0.388558179830257</v>
       </c>
       <c r="AH2" s="0" t="n">
         <v>-0.129</v>
@@ -2222,29 +2291,29 @@
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">((B3-6.1)/2.3)*$AH3</f>
-        <v>-0.10606013851407</v>
+        <v>-0.106060138514071</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">((B3-AF3)/AG3)*$AH3</f>
-        <v>-0.0790104402858647</v>
+        <v>-0.0790104402858649</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5.99501640648685</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">((E3-6.1)/2.3)*$AH3</f>
-        <v>0.00524917967565726</v>
+        <v>0.00524917967565748</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">((E3-$AF3)/$AG3)*$AH3</f>
-        <v>0.0719977031884504</v>
+        <v>0.0719977031884506</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>9.13589210002509</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">((H3-6.1)/2.3)*$AH3</f>
-        <v>-0.151794605001254</v>
+        <v>-0.151794605001255</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">((H3-$AF3)/$AG3)*$AH3</f>
@@ -2277,22 +2346,22 @@
       </c>
       <c r="R3" s="0" t="n">
         <f aca="false">((Q3-6.1)/2.3)*$AH3</f>
-        <v>-0.0838546406313687</v>
+        <v>-0.0838546406313685</v>
       </c>
       <c r="S3" s="0" t="n">
         <f aca="false">((Q3-$AF3)/$AG3)*$AH3</f>
-        <v>-0.0488852803736098</v>
+        <v>-0.0488852803736095</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>5.82828725799647</v>
       </c>
       <c r="U3" s="0" t="n">
         <f aca="false">((T3-6.1)/2.3)*$AH3</f>
-        <v>0.0135856371001764</v>
+        <v>0.0135856371001765</v>
       </c>
       <c r="V3" s="0" t="n">
         <f aca="false">((T3-$AF3)/$AG3)*$AH3</f>
-        <v>0.0833073848871878</v>
+        <v>0.0833073848871879</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>5.30584599603288</v>
@@ -2310,18 +2379,18 @@
       </c>
       <c r="AA3" s="0" t="n">
         <f aca="false">((Z3-6.1)/2.3)*$AH3</f>
-        <v>0.0226238564041973</v>
+        <v>0.0226238564041975</v>
       </c>
       <c r="AB3" s="0" t="n">
         <f aca="false">((Z3-$AF3)/$AG3)*$AH3</f>
-        <v>0.095569114090196</v>
+        <v>0.0955691140901962</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>5.11722927184498</v>
       </c>
       <c r="AD3" s="0" t="n">
         <f aca="false">((AC3-6.1)/2.3)*$AH3</f>
-        <v>0.0491385364077511</v>
+        <v>0.049138536407751</v>
       </c>
       <c r="AE3" s="0" t="n">
         <f aca="false">((AC3-$AF3)/$AG3)*$AH3</f>
@@ -2348,106 +2417,106 @@
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">((B4-13.4)/2.7)*$AH4</f>
-        <v>0.0443209297687457</v>
+        <v>0.0443209297687474</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">((B4-AF4)/AG4)*$AH4</f>
-        <v>0.0704885091642599</v>
+        <v>0.0704885091642638</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>11.0766011593658</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">((E4-13.4)/2.7)*$AH4</f>
-        <v>0.0877728450906268</v>
+        <v>0.0877728450906253</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">((E4-$AF4)/$AG4)*$AH4</f>
-        <v>0.171550616797485</v>
+        <v>0.171550616797482</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>13.5024677376123</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">((H4-13.4)/2.7)*$AH4</f>
-        <v>-0.00387100342090881</v>
+        <v>-0.00387100342090908</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">((H4-$AF4)/$AG4)*$AH4</f>
-        <v>-0.0415981112525268</v>
+        <v>-0.0415981112525281</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>13.1879332429676</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">((K4-13.4)/2.7)*$AH4</f>
-        <v>0.00801141082122365</v>
+        <v>0.00801141082122398</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">((K4-$AF4)/$AG4)*$AH4</f>
-        <v>-0.0139615429175003</v>
+        <v>-0.0139615429174999</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>13.1526458510434</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">((N4-13.4)/2.7)*$AH4</f>
-        <v>0.00934449007169544</v>
+        <v>0.00934449007169376</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">((N4-$AF4)/$AG4)*$AH4</f>
-        <v>-0.010861016791165</v>
+        <v>-0.0108610167911693</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>13.496872132438</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">((Q4-13.4)/2.7)*$AH4</f>
-        <v>-0.00365961389210167</v>
+        <v>-0.0036596138921022</v>
       </c>
       <c r="S4" s="0" t="n">
         <f aca="false">((Q4-$AF4)/$AG4)*$AH4</f>
-        <v>-0.0411064534934939</v>
+        <v>-0.0411064534934957</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>13.7210251951642</v>
       </c>
       <c r="U4" s="0" t="n">
         <f aca="false">((T4-13.4)/2.7)*$AH4</f>
-        <v>-0.0121276184839817</v>
+        <v>-0.0121276184839809</v>
       </c>
       <c r="V4" s="0" t="n">
         <f aca="false">((T4-$AF4)/$AG4)*$AH4</f>
-        <v>-0.0608016587603667</v>
+        <v>-0.0608016587603655</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>12.4987747029461</v>
       </c>
       <c r="X4" s="0" t="n">
         <f aca="false">((W4-13.4)/2.7)*$AH4</f>
-        <v>0.0340462889998145</v>
+        <v>0.034046288999814</v>
       </c>
       <c r="Y4" s="0" t="n">
         <f aca="false">((W4-$AF4)/$AG4)*$AH4</f>
-        <v>0.046591361165365</v>
+        <v>0.0465913611653637</v>
       </c>
       <c r="Z4" s="0" t="n">
         <v>12.0564882181402</v>
       </c>
       <c r="AA4" s="0" t="n">
         <f aca="false">((Z4-13.4)/2.7)*$AH4</f>
-        <v>0.0507548895369242</v>
+        <v>0.0507548895369258</v>
       </c>
       <c r="AB4" s="0" t="n">
         <f aca="false">((Z4-$AF4)/$AG4)*$AH4</f>
-        <v>0.0854528560700926</v>
+        <v>0.0854528560700964</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>15.3707483800536</v>
       </c>
       <c r="AD4" s="0" t="n">
         <f aca="false">((AC4-13.4)/2.7)*$AH4</f>
-        <v>-0.0744504943575815</v>
+        <v>-0.0744504943575804</v>
       </c>
       <c r="AE4" s="0" t="n">
         <f aca="false">((AC4-$AF4)/$AG4)*$AH4</f>
@@ -2478,7 +2547,7 @@
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">((B5-AF5)/AG5)*$AH5</f>
-        <v>0.0746876891258611</v>
+        <v>0.074687689125861</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>8.23604467054269</v>
@@ -2489,7 +2558,7 @@
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">((E5-$AF5)/$AG5)*$AH5</f>
-        <v>0.106362501781698</v>
+        <v>0.106362501781699</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>10.2008224609531</v>
@@ -2500,18 +2569,18 @@
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">((H5-$AF5)/$AG5)*$AH5</f>
-        <v>-0.0519966710218487</v>
+        <v>-0.0519966710218476</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>11.6862425608286</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">((K5-17.6)/3.8)*$AH5</f>
-        <v>0.154068943809991</v>
+        <v>0.154068943809992</v>
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">((K5-$AF5)/$AG5)*$AH5</f>
-        <v>-0.171720081694618</v>
+        <v>-0.171720081694619</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>10.4648964118611</v>
@@ -2522,18 +2591,18 @@
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">((N5-$AF5)/$AG5)*$AH5</f>
-        <v>-0.0732807737986908</v>
+        <v>-0.0732807737986913</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>11.1511334344663</v>
       </c>
       <c r="R5" s="0" t="n">
         <f aca="false">((Q5-17.6)/3.8)*$AH5</f>
-        <v>0.16800994473364</v>
+        <v>0.168009944733641</v>
       </c>
       <c r="S5" s="0" t="n">
         <f aca="false">((Q5-$AF5)/$AG5)*$AH5</f>
-        <v>-0.128590808234815</v>
+        <v>-0.128590808234814</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>8.59984036931811</v>
@@ -2544,14 +2613,14 @@
       </c>
       <c r="V5" s="0" t="n">
         <f aca="false">((T5-$AF5)/$AG5)*$AH5</f>
-        <v>0.0770409234287949</v>
+        <v>0.077040923428795</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>8.4392894301592</v>
       </c>
       <c r="X5" s="0" t="n">
         <f aca="false">((W5-17.6)/3.8)*$AH5</f>
-        <v>0.238660617477432</v>
+        <v>0.238660617477431</v>
       </c>
       <c r="Y5" s="0" t="n">
         <f aca="false">((W5-$AF5)/$AG5)*$AH5</f>
@@ -2566,7 +2635,7 @@
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">((Z5-$AF5)/$AG5)*$AH5</f>
-        <v>0.0291565877254995</v>
+        <v>0.0291565877254994</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>8.95569409673192</v>
@@ -2577,15 +2646,15 @@
       </c>
       <c r="AE5" s="0" t="n">
         <f aca="false">((AC5-$AF5)/$AG5)*$AH5</f>
-        <v>0.0483594602183736</v>
+        <v>0.0483594602183735</v>
       </c>
       <c r="AF5" s="0" t="n">
         <f aca="false">AVERAGE(B5,E5,H5,K5,N5,Q5,T5,W5,Z5,AC5)</f>
-        <v>9.55569466323633</v>
+        <v>9.55569466323632</v>
       </c>
       <c r="AG5" s="0" t="n">
         <f aca="false">STDEV(B5,E5,H5,K5,N5,Q5,T5,W5,Z5,AC5)</f>
-        <v>1.22830271090098</v>
+        <v>1.22830271090097</v>
       </c>
       <c r="AH5" s="0" t="n">
         <v>-0.099</v>
@@ -2600,11 +2669,11 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">((B6-7.6)/1.1)*$AH6</f>
-        <v>0.0568313959320025</v>
+        <v>0.0568313959320024</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">((B6-AF6)/AG6)*$AH6</f>
-        <v>-0.0824890324043524</v>
+        <v>-0.0824890324043526</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4.88336951876439</v>
@@ -2626,29 +2695,29 @@
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">((H6-$AF6)/$AG6)*$AH6</f>
-        <v>0.00325144263263227</v>
+        <v>0.00325144263263255</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>4.22972548861579</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">((K6-7.6)/1.1)*$AH6</f>
-        <v>0.134810980455369</v>
+        <v>0.134810980455368</v>
       </c>
       <c r="M6" s="0" t="n">
         <f aca="false">((K6-$AF6)/$AG6)*$AH6</f>
-        <v>0.0414119264215894</v>
+        <v>0.0414119264215891</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>5.12173294424539</v>
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">((N6-7.6)/1.1)*$AH6</f>
-        <v>0.0991306822301842</v>
+        <v>0.0991306822301844</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">((N6-$AF6)/$AG6)*$AH6</f>
-        <v>-0.0152801319975116</v>
+        <v>-0.0152801319975113</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>4.34159520112607</v>
@@ -2659,29 +2728,29 @@
       </c>
       <c r="S6" s="0" t="n">
         <f aca="false">((Q6-$AF6)/$AG6)*$AH6</f>
-        <v>0.034301981054054</v>
+        <v>0.0343019810540536</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>5.30584354895344</v>
       </c>
       <c r="U6" s="0" t="n">
         <f aca="false">((T6-7.6)/1.1)*$AH6</f>
-        <v>0.0917662580418626</v>
+        <v>0.0917662580418624</v>
       </c>
       <c r="V6" s="0" t="n">
         <f aca="false">((T6-$AF6)/$AG6)*$AH6</f>
-        <v>-0.0269813897524897</v>
+        <v>-0.02698138975249</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>5.38153797504682</v>
       </c>
       <c r="X6" s="0" t="n">
         <f aca="false">((W6-7.6)/1.1)*$AH6</f>
-        <v>0.088738480998127</v>
+        <v>0.0887384809981272</v>
       </c>
       <c r="Y6" s="0" t="n">
         <f aca="false">((W6-$AF6)/$AG6)*$AH6</f>
-        <v>-0.0317921935176418</v>
+        <v>-0.0317921935176416</v>
       </c>
       <c r="Z6" s="0" t="n">
         <v>4.85084998526936</v>
@@ -2692,7 +2761,7 @@
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">((Z6-$AF6)/$AG6)*$AH6</f>
-        <v>0.00193599376252373</v>
+        <v>0.00193599376252356</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>3.68909196247403</v>
@@ -2703,7 +2772,7 @@
       </c>
       <c r="AE6" s="0" t="n">
         <f aca="false">((AC6-$AF6)/$AG6)*$AH6</f>
-        <v>0.0757722081142119</v>
+        <v>0.075772208114212</v>
       </c>
       <c r="AF6" s="0" t="n">
         <f aca="false">AVERAGE(B6,E6,H6,K6,N6,Q6,T6,W6,Z6,AC6)</f>
@@ -2726,11 +2795,11 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">((B7-11.8)/0.8)*$AH7</f>
-        <v>0.0713080143980925</v>
+        <v>0.0713080143980943</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">((B7-AF7)/AG7)*$AH7</f>
-        <v>-0.043247739907448</v>
+        <v>-0.0432477399074472</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>7.24235023857234</v>
@@ -2741,7 +2810,7 @@
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">((E7-$AF7)/$AG7)*$AH7</f>
-        <v>0.032721012738674</v>
+        <v>0.0327210127386741</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>8.66472535867728</v>
@@ -2759,11 +2828,11 @@
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">((K7-11.8)/0.8)*$AH7</f>
-        <v>-0.000845688386647323</v>
+        <v>-0.000845688386647418</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">((K7-$AF7)/$AG7)*$AH7</f>
-        <v>-0.0748108410442002</v>
+        <v>-0.0748108410442003</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>9.08327960985352</v>
@@ -2781,11 +2850,11 @@
       </c>
       <c r="R7" s="0" t="n">
         <f aca="false">((Q7-11.8)/0.8)*$AH7</f>
-        <v>0.0826534079739432</v>
+        <v>0.0826534079739413</v>
       </c>
       <c r="S7" s="0" t="n">
         <f aca="false">((Q7-$AF7)/$AG7)*$AH7</f>
-        <v>-0.038284781790951</v>
+        <v>-0.0382847817909518</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>6.10259737280117</v>
@@ -2807,7 +2876,7 @@
       </c>
       <c r="Y7" s="0" t="n">
         <f aca="false">((W7-$AF7)/$AG7)*$AH7</f>
-        <v>0.0225041557632138</v>
+        <v>0.0225041557632137</v>
       </c>
       <c r="Z7" s="0" t="n">
         <v>6.52195489090845</v>
@@ -2829,7 +2898,7 @@
       </c>
       <c r="AE7" s="0" t="n">
         <f aca="false">((AC7-$AF7)/$AG7)*$AH7</f>
-        <v>0.00322590873778108</v>
+        <v>0.00322590873778104</v>
       </c>
       <c r="AF7" s="0" t="n">
         <f aca="false">AVERAGE(B7,E7,H7,K7,N7,Q7,T7,W7,Z7,AC7)</f>
@@ -2853,51 +2922,51 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">((B8-7.2)/1.9)*$AH8</f>
-        <v>-0.00673147761691004</v>
+        <v>-0.00673147761691003</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">((B8-AF8)/AG8)*$AH8</f>
-        <v>0.000553270933738449</v>
+        <v>0.000553270933738462</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>5.69776713482597</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">((E8-7.2)/1.9)*$AH8</f>
-        <v>-0.0118597331461107</v>
+        <v>-0.0118597331461108</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">((E8-$AF8)/$AG8)*$AH8</f>
-        <v>-0.00836065925942463</v>
+        <v>-0.00836065925942471</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>6.63122801578761</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">((H8-7.2)/1.9)*$AH8</f>
-        <v>-0.00449030513851891</v>
+        <v>-0.00449030513851887</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">((H8-$AF8)/$AG8)*$AH8</f>
-        <v>0.004448875376509</v>
+        <v>0.00444887537650905</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>8.33264920468809</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">((K8-7.2)/1.9)*$AH8</f>
-        <v>0.00894196740543232</v>
+        <v>0.00894196740543229</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">((K8-$AF8)/$AG8)*$AH8</f>
-        <v>0.0277968421676616</v>
+        <v>0.0277968421676615</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>6.48556217545495</v>
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">((N8-7.2)/1.9)*$AH8</f>
-        <v>-0.00564029861482935</v>
+        <v>-0.00564029861482934</v>
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">((N8-$AF8)/$AG8)*$AH8</f>
@@ -2908,7 +2977,7 @@
       </c>
       <c r="R8" s="0" t="n">
         <f aca="false">((Q8-7.2)/1.9)*$AH8</f>
-        <v>0.00328435396649639</v>
+        <v>0.00328435396649637</v>
       </c>
       <c r="S8" s="0" t="n">
         <f aca="false">((Q8-$AF8)/$AG8)*$AH8</f>
@@ -2941,22 +3010,22 @@
       </c>
       <c r="AA8" s="0" t="n">
         <f aca="false">((Z8-7.2)/1.9)*$AH8</f>
-        <v>-0.0112849353193942</v>
+        <v>-0.0112849353193941</v>
       </c>
       <c r="AB8" s="0" t="n">
         <f aca="false">((Z8-$AF8)/$AG8)*$AH8</f>
-        <v>-0.00736154607690895</v>
+        <v>-0.00736154607690892</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>6.383248123109</v>
       </c>
       <c r="AD8" s="0" t="n">
         <f aca="false">((AC8-7.2)/1.9)*$AH8</f>
-        <v>-0.00644804113334998</v>
+        <v>-0.00644804113335</v>
       </c>
       <c r="AE8" s="0" t="n">
         <f aca="false">((AC8-$AF8)/$AG8)*$AH8</f>
-        <v>0.00104594003227765</v>
+        <v>0.00104594003227761</v>
       </c>
       <c r="AF8" s="0" t="n">
         <f aca="false">AVERAGE(B8,E8,H8,K8,N8,Q8,T8,W8,Z8,AC8)</f>
@@ -2979,44 +3048,44 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">((B9-10)/2.3)*$AH9</f>
-        <v>0.0165256478803334</v>
+        <v>0.0165256478803339</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">((B9-AF9)/AG9)*$AH9</f>
-        <v>-0.0725922579129339</v>
+        <v>-0.0725922579129335</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>11.0341607402404</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">((E9-10)/2.3)*$AH9</f>
-        <v>0.0292262817894028</v>
+        <v>0.0292262817894026</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">((E9-$AF9)/$AG9)*$AH9</f>
-        <v>-0.0564970026774558</v>
+        <v>-0.0564970026774561</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>14.9472854855419</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">((H9-10)/2.3)*$AH9</f>
-        <v>0.139814589808794</v>
+        <v>0.139814589808793</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">((H9-$AF9)/$AG9)*$AH9</f>
-        <v>0.0836493125675444</v>
+        <v>0.0836493125675436</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>13.964582261204</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">((K9-10)/2.3)*$AH9</f>
-        <v>0.112042542164462</v>
+        <v>0.112042542164461</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">((K9-$AF9)/$AG9)*$AH9</f>
-        <v>0.0484543610046796</v>
+        <v>0.048454361004678</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>14.6510375825993</v>
@@ -3027,62 +3096,62 @@
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">((N9-$AF9)/$AG9)*$AH9</f>
-        <v>0.0730393640739989</v>
+        <v>0.073039364073999</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>14.9749889486229</v>
       </c>
       <c r="R9" s="0" t="n">
         <f aca="false">((Q9-10)/2.3)*$AH9</f>
-        <v>0.140597513765428</v>
+        <v>0.14059751376543</v>
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">((Q9-$AF9)/$AG9)*$AH9</f>
-        <v>0.08464149618627</v>
+        <v>0.0846414961862717</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>12.3170338073268</v>
       </c>
       <c r="U9" s="0" t="n">
         <f aca="false">((T9-10)/2.3)*$AH9</f>
-        <v>0.0654813902070606</v>
+        <v>0.0654813902070617</v>
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">((T9-$AF9)/$AG9)*$AH9</f>
-        <v>-0.01055164059947</v>
+        <v>-0.0105516405994686</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>11.0435018540618</v>
       </c>
       <c r="X9" s="0" t="n">
         <f aca="false">((W9-10)/2.3)*$AH9</f>
-        <v>0.0294902697887031</v>
+        <v>0.029490269788703</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">((W9-$AF9)/$AG9)*$AH9</f>
-        <v>-0.0561624560510226</v>
+        <v>-0.0561624560510228</v>
       </c>
       <c r="Z9" s="0" t="n">
         <v>11.4208213945066</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">((Z9-10)/2.3)*$AH9</f>
-        <v>0.0401536481056204</v>
+        <v>0.0401536481056213</v>
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">((Z9-$AF9)/$AG9)*$AH9</f>
-        <v>-0.0426489734239319</v>
+        <v>-0.0426489734239309</v>
       </c>
       <c r="AC9" s="0" t="n">
         <v>11.1783707733825</v>
       </c>
       <c r="AD9" s="0" t="n">
         <f aca="false">((AC9-10)/2.3)*$AH9</f>
-        <v>0.033301782726028</v>
+        <v>0.0333017827260272</v>
       </c>
       <c r="AE9" s="0" t="n">
         <f aca="false">((AC9-$AF9)/$AG9)*$AH9</f>
-        <v>-0.0513322031676791</v>
+        <v>-0.0513322031676803</v>
       </c>
       <c r="AF9" s="0" t="n">
         <f aca="false">AVERAGE(B9,E9,H9,K9,N9,Q9,T9,W9,Z9,AC9)</f>
@@ -3109,18 +3178,18 @@
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">((B10-AF10)/AG10)*$AH10</f>
-        <v>0.210919963973728</v>
+        <v>0.210919963973729</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3.25325308958636</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">((E10-1.2)/1)*$AH10</f>
-        <v>0.275135914004573</v>
+        <v>0.275135914004572</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">((E10-$AF10)/$AG10)*$AH10</f>
-        <v>0.0783036813910548</v>
+        <v>0.0783036813910537</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2.60360069549101</v>
@@ -3131,18 +3200,18 @@
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">((H10-$AF10)/$AG10)*$AH10</f>
-        <v>-0.0863633287798621</v>
+        <v>-0.0863633287798619</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2.50822833280679</v>
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">((K10-1.2)/1)*$AH10</f>
-        <v>0.175302596596109</v>
+        <v>0.17530259659611</v>
       </c>
       <c r="M10" s="0" t="n">
         <f aca="false">((K10-$AF10)/$AG10)*$AH10</f>
-        <v>-0.110537305446286</v>
+        <v>-0.110537305446285</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>3.13561246715465</v>
@@ -3153,18 +3222,18 @@
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">((N10-$AF10)/$AG10)*$AH10</f>
-        <v>0.0484853820258209</v>
+        <v>0.0484853820258211</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>2.12418768996495</v>
       </c>
       <c r="R10" s="0" t="n">
         <f aca="false">((Q10-1.2)/1)*$AH10</f>
-        <v>0.123841150455304</v>
+        <v>0.123841150455303</v>
       </c>
       <c r="S10" s="0" t="n">
         <f aca="false">((Q10-$AF10)/$AG10)*$AH10</f>
-        <v>-0.207879861274071</v>
+        <v>-0.207879861274072</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>3.49192254526896</v>
@@ -3175,7 +3244,7 @@
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">((T10-$AF10)/$AG10)*$AH10</f>
-        <v>0.13879908792473</v>
+        <v>0.138799087924729</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>3.27202219604798</v>
@@ -3186,18 +3255,18 @@
       </c>
       <c r="Y10" s="0" t="n">
         <f aca="false">((W10-$AF10)/$AG10)*$AH10</f>
-        <v>0.0830610757648832</v>
+        <v>0.0830610757648839</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>2.88217447320299</v>
       </c>
       <c r="AA10" s="0" t="n">
         <f aca="false">((Z10-1.2)/1)*$AH10</f>
-        <v>0.2254113794092</v>
+        <v>0.225411379409201</v>
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">((Z10-$AF10)/$AG10)*$AH10</f>
-        <v>-0.0157533972152663</v>
+        <v>-0.0157533972152653</v>
       </c>
       <c r="AC10" s="0" t="n">
         <v>2.3957966483597</v>
@@ -3208,7 +3277,7 @@
       </c>
       <c r="AE10" s="0" t="n">
         <f aca="false">((AC10-$AF10)/$AG10)*$AH10</f>
-        <v>-0.139035298364732</v>
+        <v>-0.139035298364733</v>
       </c>
       <c r="AF10" s="0" t="n">
         <f aca="false">AVERAGE(B10,E10,H10,K10,N10,Q10,T10,W10,Z10,AC10)</f>
@@ -3216,7 +3285,7 @@
       </c>
       <c r="AG10" s="0" t="n">
         <f aca="false">STDEV(B10,E10,H10,K10,N10,Q10,T10,W10,Z10,AC10)</f>
-        <v>0.528663396016118</v>
+        <v>0.528663396016119</v>
       </c>
       <c r="AH10" s="0" t="n">
         <v>0.134</v>
@@ -3232,22 +3301,22 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">((B11-3.7)/1.2)*$AH11</f>
-        <v>0.317446644992321</v>
+        <v>0.31744664499232</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">((B11-AF11)/AG11)*$AH11</f>
-        <v>0.118230407224727</v>
+        <v>0.118230407224726</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5.52738527073233</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">((E11-3.7)/1.2)*$AH11</f>
-        <v>0.204058021898444</v>
+        <v>0.204058021898443</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">((E11-$AF11)/$AG11)*$AH11</f>
-        <v>-0.0576517873582083</v>
+        <v>-0.0576517873582086</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>6.78697149437664</v>
@@ -3258,7 +3327,7 @@
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">((H11-$AF11)/$AG11)*$AH11</f>
-        <v>0.160522641974935</v>
+        <v>0.160522641974936</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>6.72543003866058</v>
@@ -3280,14 +3349,14 @@
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">((N11-$AF11)/$AG11)*$AH11</f>
-        <v>0.0372825671327802</v>
+        <v>0.0372825671327806</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>6.45356513990221</v>
       </c>
       <c r="R11" s="0" t="n">
         <f aca="false">((Q11-3.7)/1.2)*$AH11</f>
-        <v>0.307481440622414</v>
+        <v>0.307481440622413</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">((Q11-$AF11)/$AG11)*$AH11</f>
@@ -3309,11 +3378,11 @@
       </c>
       <c r="X11" s="0" t="n">
         <f aca="false">((W11-3.7)/1.2)*$AH11</f>
-        <v>0.210729222637686</v>
+        <v>0.210729222637687</v>
       </c>
       <c r="Y11" s="0" t="n">
         <f aca="false">((W11-$AF11)/$AG11)*$AH11</f>
-        <v>-0.0473037877573149</v>
+        <v>-0.0473037877573137</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>5.30672404794614</v>
@@ -3324,14 +3393,14 @@
       </c>
       <c r="AB11" s="0" t="n">
         <f aca="false">((Z11-$AF11)/$AG11)*$AH11</f>
-        <v>-0.095872780453895</v>
+        <v>-0.0958727804538948</v>
       </c>
       <c r="AC11" s="0" t="n">
         <v>4.50858580845123</v>
       </c>
       <c r="AD11" s="0" t="n">
         <f aca="false">((AC11-3.7)/1.2)*$AH11</f>
-        <v>0.090292081943721</v>
+        <v>0.0902920819437206</v>
       </c>
       <c r="AE11" s="0" t="n">
         <f aca="false">((AC11-$AF11)/$AG11)*$AH11</f>
@@ -3343,7 +3412,7 @@
       </c>
       <c r="AG11" s="0" t="n">
         <f aca="false">STDEV(B11,E11,H11,K11,N11,Q11,T11,W11,Z11,AC11)</f>
-        <v>0.773622071496791</v>
+        <v>0.773622071496793</v>
       </c>
       <c r="AH11" s="0" t="n">
         <v>0.134</v>
@@ -3358,44 +3427,44 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">((B12-4.5)/0.8)*$AH12</f>
-        <v>-0.113404953344075</v>
+        <v>-0.113404953344074</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">((B12-AF12)/AG12)*$AH12</f>
-        <v>0.171133669362805</v>
+        <v>0.171133669362806</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>3.27909909658547</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">((E12-4.5)/0.8)*$AH12</f>
-        <v>-0.212131531968274</v>
+        <v>-0.212131531968275</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">((E12-$AF12)/$AG12)*$AH12</f>
-        <v>0.0423130545922039</v>
+        <v>0.0423130545922035</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2.79349279109419</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">((H12-4.5)/0.8)*$AH12</f>
-        <v>-0.296505627547384</v>
+        <v>-0.296505627547385</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">((H12-$AF12)/$AG12)*$AH12</f>
-        <v>-0.0677801241108417</v>
+        <v>-0.067780124110843</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>2.10892940659486</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">((K12-4.5)/0.8)*$AH12</f>
-        <v>-0.415448515604144</v>
+        <v>-0.415448515604143</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">((K12-$AF12)/$AG12)*$AH12</f>
-        <v>-0.222979424801556</v>
+        <v>-0.222979424801555</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>3.19227342731554</v>
@@ -3413,29 +3482,29 @@
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">((Q12-4.5)/0.8)*$AH12</f>
-        <v>-0.366430782146037</v>
+        <v>-0.366430782146036</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">((Q12-$AF12)/$AG12)*$AH12</f>
-        <v>-0.159020006307264</v>
+        <v>-0.159020006307263</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>3.86734047736486</v>
       </c>
       <c r="U12" s="0" t="n">
         <f aca="false">((T12-4.5)/0.8)*$AH12</f>
-        <v>-0.109924592057855</v>
+        <v>-0.109924592057856</v>
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">((T12-$AF12)/$AG12)*$AH12</f>
-        <v>0.175674921442665</v>
+        <v>0.175674921442664</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>3.72193194999819</v>
       </c>
       <c r="X12" s="0" t="n">
         <f aca="false">((W12-4.5)/0.8)*$AH12</f>
-        <v>-0.135189323687815</v>
+        <v>-0.135189323687814</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">((W12-$AF12)/$AG12)*$AH12</f>
@@ -3450,7 +3519,7 @@
       </c>
       <c r="AB12" s="0" t="n">
         <f aca="false">((Z12-$AF12)/$AG12)*$AH12</f>
-        <v>0.00239620575871017</v>
+        <v>0.00239620575870966</v>
       </c>
       <c r="AC12" s="0" t="n">
         <v>2.62016481128346</v>
@@ -3488,7 +3557,7 @@
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">((B13-AF13)/AG13)*$AH13</f>
-        <v>0.14831382029371</v>
+        <v>0.148313820293711</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1.9735376633002</v>
@@ -3499,7 +3568,7 @@
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">((E13-$AF13)/$AG13)*$AH13</f>
-        <v>-0.0369049017110386</v>
+        <v>-0.0369049017110391</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1.25174639610995</v>
@@ -3517,11 +3586,11 @@
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">((K13-1)/0.8)*$AH13</f>
-        <v>0.0985916414572037</v>
+        <v>0.0985916414572044</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">((K13-$AF13)/$AG13)*$AH13</f>
-        <v>-0.162032154111046</v>
+        <v>-0.162032154111045</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>2.10019785524528</v>
@@ -3532,36 +3601,36 @@
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">((N13-$AF13)/$AG13)*$AH13</f>
-        <v>-0.00349287821732701</v>
+        <v>-0.00349287821732738</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>2.43168464605448</v>
       </c>
       <c r="R13" s="0" t="n">
         <f aca="false">((Q13-1)/0.8)*$AH13</f>
-        <v>0.282757717595761</v>
+        <v>0.28275771759576</v>
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">((Q13-$AF13)/$AG13)*$AH13</f>
-        <v>0.0839508898070771</v>
+        <v>0.0839508898070768</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>2.07399489370266</v>
       </c>
       <c r="U13" s="0" t="n">
         <f aca="false">((T13-1)/0.8)*$AH13</f>
-        <v>0.212113991506276</v>
+        <v>0.212113991506275</v>
       </c>
       <c r="V13" s="0" t="n">
         <f aca="false">((T13-$AF13)/$AG13)*$AH13</f>
-        <v>-0.0104050260139016</v>
+        <v>-0.0104050260139015</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>3.36357957874017</v>
       </c>
       <c r="X13" s="0" t="n">
         <f aca="false">((W13-1)/0.8)*$AH13</f>
-        <v>0.466806966801185</v>
+        <v>0.466806966801184</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">((W13-$AF13)/$AG13)*$AH13</f>
@@ -3576,18 +3645,18 @@
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">((Z13-$AF13)/$AG13)*$AH13</f>
-        <v>-0.065544337080223</v>
+        <v>-0.0655443370802226</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>1.89980438249092</v>
       </c>
       <c r="AD13" s="0" t="n">
         <f aca="false">((AC13-1)/0.8)*$AH13</f>
-        <v>0.177711365541958</v>
+        <v>0.177711365541957</v>
       </c>
       <c r="AE13" s="0" t="n">
         <f aca="false">((AC13-$AF13)/$AG13)*$AH13</f>
-        <v>-0.0563551968103566</v>
+        <v>-0.0563551968103574</v>
       </c>
       <c r="AF13" s="0" t="n">
         <f aca="false">AVERAGE(B13,E13,H13,K13,N13,Q13,T13,W13,Z13,AC13)</f>
@@ -3595,7 +3664,7 @@
       </c>
       <c r="AG13" s="0" t="n">
         <f aca="false">STDEV(B13,E13,H13,K13,N13,Q13,T13,W13,Z13,AC13)</f>
-        <v>0.598955353035984</v>
+        <v>0.598955353035983</v>
       </c>
       <c r="AH13" s="0" t="n">
         <v>0.158</v>
@@ -3610,7 +3679,7 @@
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">((B14-6.6)/1.5)*$AH14</f>
-        <v>0.0564540272571062</v>
+        <v>0.0564540272571065</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">((B14-AF14)/AG14)*$AH14</f>
@@ -3621,44 +3690,44 @@
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">((E14-6.6)/1.5)*$AH14</f>
-        <v>0.0205866345001789</v>
+        <v>0.0205866345001785</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">((E14-$AF14)/$AG14)*$AH14</f>
-        <v>0.139240727817142</v>
+        <v>0.139240727817141</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>5.9373332324765</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">((H14-6.6)/1.5)*$AH14</f>
-        <v>-0.0746604558076481</v>
+        <v>-0.0746604558076476</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">((H14-$AF14)/$AG14)*$AH14</f>
-        <v>-0.0868116210117288</v>
+        <v>-0.0868116210117283</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5.80536439676304</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">((K14-6.6)/1.5)*$AH14</f>
-        <v>-0.0895289446313643</v>
+        <v>-0.0895289446313641</v>
       </c>
       <c r="M14" s="0" t="n">
         <f aca="false">((K14-$AF14)/$AG14)*$AH14</f>
-        <v>-0.12209938477726</v>
+        <v>-0.122099384777261</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>6.03173212377946</v>
       </c>
       <c r="O14" s="0" t="n">
         <f aca="false">((N14-6.6)/1.5)*$AH14</f>
-        <v>-0.0640248473875147</v>
+        <v>-0.0640248473875141</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">((N14-$AF14)/$AG14)*$AH14</f>
-        <v>-0.0615698602731574</v>
+        <v>-0.0615698602731565</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>5.31383567550206</v>
@@ -3669,25 +3738,25 @@
       </c>
       <c r="S14" s="0" t="n">
         <f aca="false">((Q14-$AF14)/$AG14)*$AH14</f>
-        <v>-0.253531546818094</v>
+        <v>-0.253531546818095</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>6.93369308589753</v>
       </c>
       <c r="U14" s="0" t="n">
         <f aca="false">((T14-6.6)/1.5)*$AH14</f>
-        <v>0.0375960876777887</v>
+        <v>0.0375960876777884</v>
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">((T14-$AF14)/$AG14)*$AH14</f>
-        <v>0.179609696891858</v>
+        <v>0.179609696891857</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>6.77116226044188</v>
       </c>
       <c r="X14" s="0" t="n">
         <f aca="false">((W14-6.6)/1.5)*$AH14</f>
-        <v>0.0192842813431184</v>
+        <v>0.0192842813431185</v>
       </c>
       <c r="Y14" s="0" t="n">
         <f aca="false">((W14-$AF14)/$AG14)*$AH14</f>
@@ -3698,11 +3767,11 @@
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">((Z14-6.6)/1.5)*$AH14</f>
-        <v>-0.015919756796606</v>
+        <v>-0.0159197567966056</v>
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">((Z14-$AF14)/$AG14)*$AH14</f>
-        <v>0.0525991782093432</v>
+        <v>0.0525991782093438</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>5.48429086970795</v>
@@ -3721,7 +3790,7 @@
       </c>
       <c r="AG14" s="0" t="n">
         <f aca="false">STDEV(B14,E14,H14,K14,N14,Q14,T14,W14,Z14,AC14)</f>
-        <v>0.632024556267268</v>
+        <v>0.632024556267267</v>
       </c>
       <c r="AH14" s="0" t="n">
         <v>0.169</v>
@@ -3740,7 +3809,7 @@
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">((B15-AF15)/AG15)*$AH15</f>
-        <v>0.0778719547021565</v>
+        <v>0.0778719547021566</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>9.69715569076742</v>
@@ -3758,11 +3827,11 @@
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">((H15-2.1)/1.2)*$AH15</f>
-        <v>0.912663973097829</v>
+        <v>0.912663973097828</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">((H15-$AF15)/$AG15)*$AH15</f>
-        <v>0.0391419912397991</v>
+        <v>0.0391419912397984</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>6.16138151800337</v>
@@ -3773,7 +3842,7 @@
       </c>
       <c r="M15" s="0" t="n">
         <f aca="false">((K15-$AF15)/$AG15)*$AH15</f>
-        <v>-0.244202078753002</v>
+        <v>-0.244202078753001</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>6.48683922251917</v>
@@ -3795,7 +3864,7 @@
       </c>
       <c r="S15" s="0" t="n">
         <f aca="false">((Q15-$AF15)/$AG15)*$AH15</f>
-        <v>-0.0868042895393009</v>
+        <v>-0.0868042895393012</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>6.94404474418656</v>
@@ -3817,7 +3886,7 @@
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">((W15-$AF15)/$AG15)*$AH15</f>
-        <v>-0.0975882550388409</v>
+        <v>-0.0975882550388418</v>
       </c>
       <c r="Z15" s="0" t="n">
         <v>9.38308402274812</v>
@@ -3843,7 +3912,7 @@
       </c>
       <c r="AF15" s="0" t="n">
         <f aca="false">AVERAGE(B15,E15,H15,K15,N15,Q15,T15,W15,Z15,AC15)</f>
-        <v>7.96387733693801</v>
+        <v>7.96387733693802</v>
       </c>
       <c r="AG15" s="0" t="n">
         <f aca="false">STDEV(B15,E15,H15,K15,N15,Q15,T15,W15,Z15,AC15)</f>
@@ -3974,11 +4043,11 @@
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">SUM(D2:D15)</f>
-        <v>0.589316093149846</v>
+        <v>0.589316093149854</v>
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">SUM(G2:G15)</f>
-        <v>0.769070938437075</v>
+        <v>0.769070938437071</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">SUM(J2:J15)</f>
@@ -3986,31 +4055,31 @@
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">SUM(M2:M15)</f>
-        <v>-0.940274366354744</v>
+        <v>-0.940274366354746</v>
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">SUM(P2:P15)</f>
-        <v>-0.381046846971477</v>
+        <v>-0.381046846971482</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">SUM(S2:S15)</f>
-        <v>-0.699813504438221</v>
+        <v>-0.699813504438222</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">SUM(V2:V15)</f>
-        <v>0.319632873542753</v>
+        <v>0.319632873542751</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">SUM(Y2:Y15)</f>
-        <v>0.71116187254442</v>
+        <v>0.711161872544419</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">SUM(AB2:AB15)</f>
-        <v>0.414857460646138</v>
+        <v>0.414857460646142</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="false">SUM(AE2:AE15)</f>
-        <v>-0.271455865108802</v>
+        <v>-0.271455865108803</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>74</v>
@@ -4033,7 +4102,7 @@
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">(D21+D20)/2</f>
-        <v>0.64560843442506</v>
+        <v>0.645608434425059</v>
       </c>
       <c r="E22" s="0" t="n">
         <f aca="false">(E21+E20)/2</f>
@@ -4041,11 +4110,11 @@
       </c>
       <c r="F22" s="0" t="n">
         <f aca="false">(F21+F20)/2</f>
-        <v>0.67565509496187</v>
+        <v>0.675655094961867</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">(G21+G20)/2</f>
-        <v>0.476102099642085</v>
+        <v>0.476102099642084</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">(H21+H20)/2</f>
@@ -4053,11 +4122,11 @@
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">(I21+I20)/2</f>
-        <v>1.59988309358618</v>
+        <v>1.59988309358617</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">(J21+J20)/2</f>
-        <v>1.40703479113063</v>
+        <v>1.40703479113064</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="false">(K21+K20)/2</f>
@@ -4069,7 +4138,7 @@
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">STDEV(B22:K22)</f>
-        <v>0.527891300855015</v>
+        <v>0.527891300855016</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,7 +4168,7 @@
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">'lit values'!G16</f>
-        <v>0.200097009280448</v>
+        <v>0.200097009280447</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">'lit values'!H16</f>
@@ -4609,10 +4678,10 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:K4 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5206,4 +5275,763 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A4:K4 H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>-0.102</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>-0.099</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>-0.044</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>-0.043</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/analyses/pronovo-2020/DI Index for Figure_from_Rick.xlsx
+++ b/analyses/pronovo-2020/DI Index for Figure_from_Rick.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Raw %mol for our samples" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Megan's 2020 peptidomic calcs." sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Megan's 2020 Lee 84 VERTEX calc" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Megan's 2020 Van Mooy 2002 calc" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="229">
   <si>
     <t xml:space="preserve">AA</t>
   </si>
@@ -323,12 +324,144 @@
     <t xml:space="preserve">7 155m</t>
   </si>
   <si>
+    <t xml:space="preserve">ORIGINAL PYTHON OUTPUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPTIDES ARE NAAF-CORRECTED BEFORE AA RELATIVE COMP IS CALCULATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/L_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y_RelNAAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 100 m sus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 265 m sus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 965 m sus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 100 m sink.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 265 m sink.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. 965 m sink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI CALCULATIONS USING OUR AVE AND STDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauwe coefficients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP dataset average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP dataset SDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP partial DI 231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP partial DI 233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP partial DI 243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP partial DI 378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP partial DI 278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETNP partial DI 273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol % ile/leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauwe dataset average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauwe dataset SDV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Megan's table: relative molar abundance of suspended particulate amino acids from Table 6 data Lee et al. 1984 VERTEX II Mexico site</t>
   </si>
   <si>
     <t xml:space="preserve">Depth (m)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dataset average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset SDV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amino acid</t>
   </si>
   <si>
@@ -375,16 +508,222 @@
   </si>
   <si>
     <t xml:space="preserve">B-ala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan's table: relative molar fraction of formalin poisoned trap  amino acids from Table 4 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1. The mole percentages of individual amino acids. The suboxic and oxic results are means from the degradation experiments after 1.3 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonprot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA/POC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75m trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(±)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.82)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500m trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suboxic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.87)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ile+Leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKQ17-231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -433,6 +772,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -483,7 +830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,7 +852,39 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -605,7 +984,9 @@
             <c:symbol val="circle"/>
             <c:size val="11"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -657,10 +1038,10 @@
                   <c:v>2.39462288651899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58061814073607</c:v>
+                  <c:v>2.58061814073606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.80266552429711</c:v>
+                  <c:v>1.8026655242971</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.28852469710615</c:v>
@@ -693,45 +1074,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.589316093149846</c:v>
+                  <c:v>0.589316093149854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.769070938437075</c:v>
+                  <c:v>0.769070938437072</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.511448655446988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.940274366354744</c:v>
+                  <c:v>-0.940274366354746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.381046846971477</c:v>
+                  <c:v>-0.381046846971482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.699813504438221</c:v>
+                  <c:v>-0.699813504438222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.319632873542753</c:v>
+                  <c:v>0.319632873542751</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71116187254442</c:v>
+                  <c:v>0.711161872544419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.414857460646138</c:v>
+                  <c:v>0.414857460646142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.271455865108802</c:v>
+                  <c:v>-0.271455865108803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25592257"/>
-        <c:axId val="97398829"/>
+        <c:axId val="60421088"/>
+        <c:axId val="7428053"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25592257"/>
+        <c:axId val="60421088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,12 +1178,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97398829"/>
+        <c:crossAx val="7428053"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97398829"/>
+        <c:axId val="7428053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +1249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25592257"/>
+        <c:crossAx val="60421088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -978,25 +1359,25 @@
                   <c:v>1.67484453958657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64560843442506</c:v>
+                  <c:v>0.645608434425059</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.174125165375701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67565509496187</c:v>
+                  <c:v>0.675655094961867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.476102099642085</c:v>
+                  <c:v>0.476102099642084</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.28699300881803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.59988309358618</c:v>
+                  <c:v>1.59988309358617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.40703479113063</c:v>
+                  <c:v>1.40703479113064</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.847753800369429</c:v>
@@ -1122,7 +1503,7 @@
                   <c:v>0.604436168319349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.200097009280448</c:v>
+                  <c:v>0.200097009280447</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.578387772056954</c:v>
@@ -1186,11 +1567,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37540992"/>
-        <c:axId val="13472464"/>
+        <c:axId val="84439195"/>
+        <c:axId val="58417470"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37540992"/>
+        <c:axId val="84439195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,12 +1603,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13472464"/>
+        <c:crossAx val="58417470"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13472464"/>
+        <c:axId val="58417470"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1259,7 +1640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37540992"/>
+        <c:crossAx val="84439195"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1296,15 +1677,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:colOff>153720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>747360</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,8 +1693,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19036440" y="3510720"/>
-        <a:ext cx="5780880" cy="3723480"/>
+        <a:off x="19037160" y="3511440"/>
+        <a:ext cx="5780160" cy="3722760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1327,14 +1708,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>495360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1342,8 +1723,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14514840" y="5711400"/>
-        <a:ext cx="3760920" cy="4342680"/>
+        <a:off x="14514840" y="5712120"/>
+        <a:ext cx="3760200" cy="4341960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1363,11 +1744,11 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="A4:K4 B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="24.57"/>
@@ -1375,7 +1756,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1829,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1864,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1899,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -1553,7 +1934,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
@@ -1623,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
@@ -1658,7 +2039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +2074,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
@@ -1728,7 +2109,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
@@ -1763,7 +2144,7 @@
         <v>4.4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
@@ -1798,7 +2179,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +2214,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
@@ -1868,7 +2249,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +2284,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +2335,7 @@
         <v>1.51742741545894</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>25</v>
       </c>
@@ -1995,12 +2376,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2389,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
@@ -2035,12 +2416,12 @@
   <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A2" activeCellId="1" sqref="A4:K4 A2"/>
+      <selection pane="topRight" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
@@ -2156,7 +2537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -2282,7 +2663,7 @@
         <v>-0.129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
@@ -2408,7 +2789,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2915,7 @@
         <v>-0.102</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -2660,7 +3041,7 @@
         <v>-0.099</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
@@ -2786,7 +3167,7 @@
         <v>-0.044</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +3294,7 @@
       </c>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
@@ -3039,7 +3420,7 @@
         <v>0.015</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
@@ -3165,7 +3546,7 @@
         <v>0.065</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
@@ -3292,7 +3673,7 @@
       </c>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
@@ -3418,7 +3799,7 @@
         <v>0.134</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
@@ -3544,7 +3925,7 @@
         <v>0.139</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
@@ -3670,7 +4051,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
@@ -3796,7 +4177,7 @@
         <v>0.169</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
@@ -3922,7 +4303,7 @@
         <v>0.178</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>61</v>
       </c>
@@ -3957,7 +4338,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>62</v>
       </c>
@@ -3992,7 +4373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>24</v>
       </c>
@@ -4037,7 +4418,7 @@
         <v>1.96696346584766</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>73</v>
       </c>
@@ -4088,7 +4469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>75</v>
       </c>
@@ -4141,7 +4522,7 @@
         <v>0.527891300855016</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="str">
         <f aca="false">'lit values'!A16</f>
         <v>DI</v>
@@ -4191,7 +4572,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="str">
         <f aca="false">'lit values'!A17</f>
         <v>Z</v>
@@ -4241,7 +4622,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>1</v>
       </c>
@@ -4273,17 +4654,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="0" t="s">
         <v>61</v>
       </c>
@@ -4306,7 +4687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <f aca="false">E30*-1</f>
         <v>-105</v>
@@ -4340,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <f aca="false">E31*-1</f>
         <v>-105</v>
@@ -4374,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <f aca="false">E32*-1</f>
         <v>-60</v>
@@ -4408,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <f aca="false">E33*-1</f>
         <v>-740</v>
@@ -4442,7 +4823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <f aca="false">E34*-1</f>
         <v>-155</v>
@@ -4476,7 +4857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <f aca="false">E35*-1</f>
         <v>-740</v>
@@ -4510,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="n">
         <f aca="false">E36*-1</f>
         <v>-155</v>
@@ -4544,7 +4925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="n">
         <f aca="false">E37*-1</f>
         <v>-265</v>
@@ -4578,7 +4959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="n">
         <f aca="false">E38*-1</f>
         <v>-155</v>
@@ -4646,7 +5027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="n">
         <f aca="false">-1*K40</f>
         <v>-3000</v>
@@ -4678,12 +5059,12 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:K4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>78</v>
       </c>
@@ -4736,7 +5117,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>63</v>
       </c>
@@ -4789,7 +5170,7 @@
         <v>6.17921510169994</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>95</v>
       </c>
@@ -4842,7 +5223,7 @@
         <v>4.88336951876439</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>96</v>
       </c>
@@ -4895,7 +5276,7 @@
         <v>4.83015237378095</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>66</v>
       </c>
@@ -4948,7 +5329,7 @@
         <v>4.22972548861579</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>67</v>
       </c>
@@ -5001,7 +5382,7 @@
         <v>5.12173294424539</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>97</v>
       </c>
@@ -5054,7 +5435,7 @@
         <v>4.34159520112607</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>69</v>
       </c>
@@ -5107,7 +5488,7 @@
         <v>5.30584354895344</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>70</v>
       </c>
@@ -5160,7 +5541,7 @@
         <v>5.38153797504682</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>98</v>
       </c>
@@ -5213,7 +5594,7 @@
         <v>4.85084998526936</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>72</v>
       </c>
@@ -5282,97 +5663,2242 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A4:K4 H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.23"/>
+  </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.11557864307441</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.00307006825359892</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0524464081443754</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.06013029792725</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.0153682584278547</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.063194616991754</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.0020663392971581</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.0313741962044185</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.158071192022808</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.00521293956442031</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.0397659207292942</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.0598029249192052</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.030181024219292</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.0745515211009629</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.0746499460251805</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.0643357301171162</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.129787832482184</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0.005746525319323</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.0146656151793953</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.119330714222789</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.00458860799103195</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.0438139157222666</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.0576132100181979</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.0105063535506154</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.0567374750040134</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.00257203038461024</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.0269079766958076</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.163357803788617</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.00237526594131293</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.0326069416938405</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.0694940323746074</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.032162325873001</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.0758365522201822</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.0745210548803935</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.0639461410259313</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.144981112837869</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0.00944715817527511</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.00920132759963754</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.125363870564715</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.00266018320753046</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.0359257945211312</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.0470561085653107</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.00274443114715244</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.0343326933222661</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.00111392883428779</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.00975360084250641</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.141169726720925</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.00134419038840889</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.0267151881330473</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.0784894481208914</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.0278553129861847</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.100600521584486</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.0970612282648295</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.0744683222346198</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.186588235172478</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0.00407929929905551</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0.00267791609017452</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.101341963763781</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.00212658641551392</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.0227035512034193</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.0622217892875366</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.0133103375701468</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.0438419069654832</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.000709708943649349</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.0292700048311533</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.105053354850474</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.00273468843559421</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.0268304308232542</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.103682163480957</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.0159693396447431</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.09196528551442</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.0747376186966819</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.079520499909246</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0.204924490692877</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0.00248244158008715</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0.0165738373909819</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.0947815028350554</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.0105376664820647</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.0503130034717388</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0880137099959756</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.0196724408952562</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.0554320079123245</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.00931401211763036</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.0630563311736291</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.155215520951996</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.0153951209431599</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.0552387172126576</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.0620395396043622</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.0254670145326125</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.0702318461864854</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.0533097550011178</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.0491224476133813</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.0934914347201045</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0.0175131342792941</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0.0118547940711541</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.117279569792102</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.00668486736005558</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.0455248599065237</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.0697007533628325</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.0177178356513544</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.0525138267564856</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.00481532063191344</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.0413555130841494</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.14401172492864</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.0112251063526933</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.0517814667566231</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.0690245185263724</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.0293519047233117</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.0800718390264774</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.0633413283079994</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.0579855004307433</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0.121039635873325</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0.00704268095931325</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0.00953174756908393</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B13" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>233</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>243</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>378</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>278</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>273</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B14" s="0" t="n">
+        <v>11.557864307441</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11.9330714222789</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>12.5363870564715</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10.1341963763781</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9.47815028350554</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>11.7279569792102</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">AVERAGE(B14:G14)</f>
+        <v>11.2279377375475</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">STDEV(B14:G14)</f>
+        <v>1.16843058985509</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">((B14-$I14)/$J14)*$H14</f>
+        <v>-0.0121417931271196</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">((C14-$I14)/$J14)*$H14</f>
+        <v>-0.025949978292856</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">((D14-$I14)/$J14)*$H14</f>
+        <v>-0.0481528994552499</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">((E14-$I14)/$J14)*$H14</f>
+        <v>0.0402513242452159</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">((F14-$I14)/$J14)*$H14</f>
+        <v>0.0643948054570684</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">((G14-$I14)/$J14)*$H14</f>
+        <v>-0.0184014588270588</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B15" s="0" t="n">
+        <v>7.45515211009629</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>7.58365522201822</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10.0600521584486</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>9.196528551442</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7.02318461864854</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>8.00718390264774</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">AVERAGE(B15:G15)</f>
+        <v>8.2209594272169</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">STDEV(B15:G15)</f>
+        <v>1.16678868301641</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">((B15-I15)/J15)*H15</f>
+        <v>0.0754788272724717</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">((C15-$I15)/$J15)*$H15</f>
+        <v>0.0628134165720372</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">((D15-$I15)/$J15)*$H15</f>
+        <v>-0.181263040317535</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">((E15-$I15)/$J15)*$H15</f>
+        <v>-0.0961531860215251</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">((F15-$I15)/$J15)*$H15</f>
+        <v>0.118054027254757</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">((G15-$I15)/$J15)*$H15</f>
+        <v>0.0210699552397936</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B16" s="0" t="n">
+        <v>5.24464081443754</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4.38139157222666</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3.59257945211312</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2.27035512034193</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5.03130034717388</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4.55248599065237</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>-0.102</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">AVERAGE(B16:G16)</f>
+        <v>4.17879221615758</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">STDEV(B16:G16)</f>
+        <v>1.09811424155176</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">((B16-I16)/J16)*H16</f>
+        <v>-0.0990029569882703</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">((C16-$I16)/$J16)*$H16</f>
+        <v>-0.0188187472096197</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">((D16-$I16)/$J16)*$H16</f>
+        <v>0.054451258047651</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">((E16-$I16)/$J16)*$H16</f>
+        <v>0.17726806229024</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">((F16-$I16)/$J16)*$H16</f>
+        <v>-0.079186505441168</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">((G16-$I16)/$J16)*$H16</f>
+        <v>-0.0347111106988332</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B17" s="0" t="n">
+        <v>3.0181024219292</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3.2162325873001</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2.78553129861847</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1.59693396447431</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2.54670145326126</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.93519047233117</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">AVERAGE(B17:G17)</f>
+        <v>2.68311536631908</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">STDEV(B17:G17)</f>
+        <v>0.577730036328706</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">((B17-I17)/J17)*H17</f>
+        <v>0.0376891579898208</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">((C17-$I17)/$J17)*$H17</f>
+        <v>0.059980643526815</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">((D17-$I17)/$J17)*$H17</f>
+        <v>0.0115227445015036</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">((E17-$I17)/$J17)*$H17</f>
+        <v>-0.12220550547893</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">((F17-$I17)/$J17)*$H17</f>
+        <v>-0.0153478334017477</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">((G17-$I17)/$J17)*$H17</f>
+        <v>0.028360792862539</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B18" s="0" t="n">
+        <v>6.3194616991754</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5.67374750040135</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3.43326933222661</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>4.38419069654832</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>5.54320079123245</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>5.25138267564856</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>-0.099</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">AVERAGE(B18:G18)</f>
+        <v>5.10087544920545</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">STDEV(B18:G18)</f>
+        <v>1.03208392731837</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">((B18-I18)/J18)*H18</f>
+        <v>-0.116889756301583</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">((C18-$I18)/$J18)*$H18</f>
+        <v>-0.0549512801887664</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">((D18-$I18)/$J18)*$H18</f>
+        <v>0.159960833814998</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">((E18-$I18)/$J18)*$H18</f>
+        <v>0.06874614421853</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">((F18-$I18)/$J18)*$H18</f>
+        <v>-0.0424289223982508</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">((G18-$I18)/$J18)*$H18</f>
+        <v>-0.0144370191449282</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="B19" s="0" t="n">
+        <v>0.20663392971581</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.257203038461024</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.111392883428779</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.070970894364935</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.931401211763036</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.481532063191344</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">AVERAGE(B19:G19)</f>
+        <v>0.343189003487488</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">STDEV(B19:G19)</f>
+        <v>0.322181755751461</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">((B19-I19)/J19)*H19</f>
+        <v>-0.0669674842562132</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">((C19-$I19)/$J19)*$H19</f>
+        <v>-0.0421680688979226</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">((D19-$I19)/$J19)*$H19</f>
+        <v>-0.113674304380936</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">((E19-$I19)/$J19)*$H19</f>
+        <v>-0.13349750714793</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">((F19-$I19)/$J19)*$H19</f>
+        <v>0.2884630406547</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">((G19-$I19)/$J19)*$H19</f>
+        <v>0.0678443240283015</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>15.8071192022808</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>16.3357803788617</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>14.1169726720925</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10.5053354850474</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>15.5215520951996</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>14.401172492864</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">(0.139+0.169)/2</f>
+        <v>0.154</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">AVERAGE(B20:G20)</f>
+        <v>14.4479887210577</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">STDEV(B20:G20)</f>
+        <v>2.10807064634373</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">((B20-I20)/J20)*H20</f>
+        <v>0.0992879885080639</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">((C20-$I20)/$J20)*$H20</f>
+        <v>0.137908051519075</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">((D20-$I20)/$J20)*$H20</f>
+        <v>-0.024181576470907</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">((E20-$I20)/$J20)*$H20</f>
+        <v>-0.288020991800566</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">((F20-$I20)/$J20)*$H20</f>
+        <v>0.0784265745100179</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">((G20-$I20)/$J20)*$H20</f>
+        <v>-0.00342004626568325</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="B21" s="0" t="n">
+        <v>3.13741962044185</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.69079766958076</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.975360084250641</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2.92700048311533</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>6.30563311736291</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>4.13555130841494</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">AVERAGE(B21:G21)</f>
+        <v>3.36196038052774</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">STDEV(B21:G21)</f>
+        <v>1.76915692516795</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="B22" s="0" t="n">
+        <v>0.521293956442031</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.237526594131293</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.134419038840889</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.273468843559421</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1.53951209431599</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1.12251063526933</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">AVERAGE(B22:G22)</f>
+        <v>0.638121860426492</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">STDEV(B22:G22)</f>
+        <v>0.567089150073635</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">((B22-I22)/J22)*H22</f>
+        <v>-0.0276057814399818</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">((C22-$I22)/$J22)*$H22</f>
+        <v>-0.0946584248289472</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">((D22-$I22)/$J22)*$H22</f>
+        <v>-0.119022164475738</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">((E22-$I22)/$J22)*$H22</f>
+        <v>-0.0861654719612301</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">((F22-$I22)/$J22)*$H22</f>
+        <v>0.212993479641621</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">((G22-$I22)/$J22)*$H22</f>
+        <v>0.114458363064277</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="B23" s="0" t="n">
+        <v>1.53682584278547</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.05063535506154</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.274443114715244</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1.33103375701468</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1.96724408952562</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1.77178356513544</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">AVERAGE(B23:G23)</f>
+        <v>1.321994287373</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">STDEV(B23:G23)</f>
+        <v>0.605952331501786</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">((B23-I23)/J23)*H23</f>
+        <v>0.0475077443037881</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">((C23-$I23)/$J23)*$H23</f>
+        <v>-0.0600081805768716</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">((D23-$I23)/$J23)*$H23</f>
+        <v>-0.231654950131544</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">((E23-$I23)/$J23)*$H23</f>
+        <v>0.00199898386228368</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">((F23-$I23)/$J23)*$H23</f>
+        <v>0.142690223295554</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">((G23-$I23)/$J23)*$H23</f>
+        <v>0.0994661792467902</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="B24" s="0" t="n">
+        <v>5.98029249192052</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>6.94940323746074</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>7.84894481208914</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>10.3682163480957</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>6.20395396043622</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>6.90245185263724</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">AVERAGE(B24:G24)</f>
+        <v>7.37554378377326</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">STDEV(B24:G24)</f>
+        <v>1.60654649686462</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="B25" s="0" t="n">
+        <v>7.46499460251805</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>7.45210548803935</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>9.70612282648295</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>7.47376186966819</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>5.33097550011178</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>6.33413283079994</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">AVERAGE(B25:G25)</f>
+        <v>7.29368218627004</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">STDEV(B25:G25)</f>
+        <v>1.46148533505481</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">((B25-I25)/J25)*H25</f>
+        <v>0.00175827028987857</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">((C25-$I25)/$J25)*$H25</f>
+        <v>0.00162598246423764</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">((D25-$I25)/$J25)*$H25</f>
+        <v>0.0247601592265287</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">((E25-$I25)/$J25)*$H25</f>
+        <v>0.00184825340780507</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">((F25-$I25)/$J25)*$H25</f>
+        <v>-0.0201443008603777</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">((G25-$I25)/$J25)*$H25</f>
+        <v>-0.00984836452807226</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="B26" s="0" t="n">
+        <v>6.43357301171162</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>6.39461410259313</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>7.44683222346198</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>7.9520499909246</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>4.91224476133813</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>5.79855004307433</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>-0.129</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">AVERAGE(B26:G26)</f>
+        <v>6.48964402218397</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">STDEV(B26:G26)</f>
+        <v>1.09843656439373</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">((B26-I26)/J26)*H26</f>
+        <v>0.00658495955560701</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">((C26-$I26)/$J26)*$H26</f>
+        <v>0.0111602800057771</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">((D26-$I26)/$J26)*$H26</f>
+        <v>-0.112411842401674</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">((E26-$I26)/$J26)*$H26</f>
+        <v>-0.171744437578574</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">((F26-$I26)/$J26)*$H26</f>
+        <v>0.185249208962216</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">((G26-$I26)/$J26)*$H26</f>
+        <v>0.0811618314566478</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="B27" s="0" t="n">
+        <v>1.46656151793953</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.920132759963754</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.267791609017452</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1.65738373909819</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1.18547940711541</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.953174756908393</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">AVERAGE(B27:G27)</f>
+        <v>1.07508729834045</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">STDEV(B27:G27)</f>
+        <v>0.488898258113296</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">((B27-I27)/J27)*H27</f>
+        <v>0.142529473018673</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">((C27-$I27)/$J27)*$H27</f>
+        <v>-0.0564164575621395</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="false">((D27-$I27)/$J27)*$H27</f>
+        <v>-0.29392338858813</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">((E27-$I27)/$J27)*$H27</f>
+        <v>0.212004777547924</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">((F27-$I27)/$J27)*$H27</f>
+        <v>0.0401919929880144</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">((G27-$I27)/$J27)*$H27</f>
+        <v>-0.0443863974043413</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="B28" s="0" t="n">
+        <v>12.9787832482184</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>14.4981112837869</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>18.6588235172478</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>20.4924490692877</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>9.34914347201045</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>12.1039635873325</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">AVERAGE(B28:G28)</f>
+        <v>14.6802123629806</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">STDEV(B28:G28)</f>
+        <v>4.18561387031592</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">((B28-I28)/J28)*H28</f>
+        <v>0.017885759023416</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">((C28-$I28)/$J28)*$H28</f>
+        <v>0.00191428252408749</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="false">((D28-$I28)/$J28)*$H28</f>
+        <v>-0.0418239465492173</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">((E28-$I28)/$J28)*$H28</f>
+        <v>-0.0610993806407204</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">((F28-$I28)/$J28)*$H28</f>
+        <v>0.0560412494965722</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">((G28-$I28)/$J28)*$H28</f>
+        <v>0.0270820361458621</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">SUM(K14:K28)</f>
+        <v>0.106114407848551</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">SUM(L14:L28)</f>
+        <v>-0.0775684809450934</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <f aca="false">SUM(M14:M28)</f>
+        <v>-0.91541311718025</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">SUM(N14:N28)</f>
+        <v>-0.456768935057477</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">SUM(O14:O28)</f>
+        <v>1.02939704015898</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">SUM(P14:P28)</f>
+        <v>0.314239085175294</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="4" t="n">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="C32" s="4" t="n">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="D32" s="4" t="n">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="E32" s="4" t="n">
         <v>378</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="F32" s="4" t="n">
         <v>278</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="G32" s="4" t="n">
         <v>273</v>
       </c>
-    </row>
+      <c r="H32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>11.557864307441</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>11.9330714222789</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>12.5363870564715</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>10.1341963763781</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>9.47815028350554</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>11.7279569792102</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">((B33-$I33)/$J33)*$H33</f>
+        <v>0.0130147934750463</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">((C33-$I33)/$J33)*$H33</f>
+        <v>-0.00715258894749083</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <f aca="false">((D33-$I33)/$J33)*$H33</f>
+        <v>-0.0395808042853431</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">((E33-$I33)/$J33)*$H33</f>
+        <v>0.0895369447696772</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">((F33-$I33)/$J33)*$H33</f>
+        <v>0.124799422261577</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">((G33-$I33)/$J33)*$H33</f>
+        <v>0.0038723123674518</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>7.45515211009629</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>7.58365522201822</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10.0600521584486</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>9.196528551442</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>7.02318461864854</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>8.00718390264774</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">((B34-I34)/J34)*H34</f>
+        <v>-0.0677576055048145</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">((C34-$I34)/$J34)*$H34</f>
+        <v>-0.074182761100911</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <f aca="false">((D34-$I34)/$J34)*$H34</f>
+        <v>-0.19800260792243</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">((E34-$I34)/$J34)*$H34</f>
+        <v>-0.1548264275721</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">((F34-$I34)/$J34)*$H34</f>
+        <v>-0.046159230932427</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">((G34-$I34)/$J34)*$H34</f>
+        <v>-0.095359195132387</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>5.24464081443754</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>4.38139157222666</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>3.59257945211312</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2.27035512034193</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>5.03130034717388</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>4.55248599065237</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>-0.102</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">((B35-I35)/J35)*H35</f>
+        <v>0.308091347010137</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">((C35-$I35)/$J35)*$H35</f>
+        <v>0.340702985049215</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="false">((D35-$I35)/$J35)*$H35</f>
+        <v>0.370502554031282</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">((E35-$I35)/$J35)*$H35</f>
+        <v>0.420453251009305</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">((F35-$I35)/$J35)*$H35</f>
+        <v>0.316150875773431</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">((G35-$I35)/$J35)*$H35</f>
+        <v>0.334239418130911</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>3.0181024219292</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3.2162325873001</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2.78553129861847</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1.59693396447431</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2.54670145326126</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2.93519047233117</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">((B36-I36)/J36)*H36</f>
+        <v>-0.197314496771566</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">((C36-$I36)/$J36)*$H36</f>
+        <v>-0.191715166011084</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <f aca="false">((D36-$I36)/$J36)*$H36</f>
+        <v>-0.203887158952087</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">((E36-$I36)/$J36)*$H36</f>
+        <v>-0.2374779531779</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">((F36-$I36)/$J36)*$H36</f>
+        <v>-0.210636698060008</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">((G36-$I36)/$J36)*$H36</f>
+        <v>-0.199657660564554</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>6.3194616991754</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>5.67374750040135</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3.43326933222661</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>4.38419069654832</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>5.54320079123245</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>5.25138267564856</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>-0.099</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">((B37-I37)/J37)*H37</f>
+        <v>0.293887708363588</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">((C37-$I37)/$J37)*$H37</f>
+        <v>0.310710262489544</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="false">((D37-$I37)/$J37)*$H37</f>
+        <v>0.369080614765675</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">((E37-$I37)/$J37)*$H37</f>
+        <v>0.344306610800452</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">((F37-$I37)/$J37)*$H37</f>
+        <v>0.314111347807365</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">((G37-$I37)/$J37)*$H37</f>
+        <v>0.321713977660735</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.20663392971581</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.257203038461024</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.111392883428779</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.070970894364935</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.931401211763036</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.481532063191344</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">((B38-I38)/J38)*H38</f>
+        <v>-0.156689798881128</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">((C38-$I38)/$J38)*$H38</f>
+        <v>-0.146702399903948</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="false">((D38-$I38)/$J38)*$H38</f>
+        <v>-0.175499905522816</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">((E38-$I38)/$J38)*$H38</f>
+        <v>-0.183483248362925</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">((F38-$I38)/$J38)*$H38</f>
+        <v>-0.0135482606768004</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">((G38-$I38)/$J38)*$H38</f>
+        <v>-0.10239741751971</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>15.8071192022808</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>16.3357803788617</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>14.1169726720925</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>10.5053354850474</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>15.5215520951996</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>14.401172492864</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">(0.139+0.169)/2</f>
+        <v>0.154</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">(4.5+6.6)/2</f>
+        <v>5.55</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">(0.8+1.5)/2</f>
+        <v>1.15</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">((B39-I39)/J39)*H39</f>
+        <v>1.37356204969673</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">((C39-$I39)/$J39)*$H39</f>
+        <v>1.44435667682148</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <f aca="false">((D39-$I39)/$J39)*$H39</f>
+        <v>1.147229383915</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <f aca="false">((E39-$I39)/$J39)*$H39</f>
+        <v>0.663584056258522</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">((F39-$I39)/$J39)*$H39</f>
+        <v>1.33532088927021</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">((G39-$I39)/$J39)*$H39</f>
+        <v>1.18528744687048</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>3.13741962044185</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2.69079766958076</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.975360084250641</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2.92700048311533</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>6.30563311736291</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>4.13555130841494</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.521293956442031</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.237526594131293</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.134419038840889</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.273468843559421</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1.53951209431599</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1.12251063526933</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">((B41-I41)/J41)*H41</f>
+        <v>-0.0909466098367678</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">((C41-$I41)/$J41)*$H41</f>
+        <v>-0.128971436386407</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <f aca="false">((D41-$I41)/$J41)*$H41</f>
+        <v>-0.142787848795321</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <f aca="false">((E41-$I41)/$J41)*$H41</f>
+        <v>-0.124155174963038</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">((F41-$I41)/$J41)*$H41</f>
+        <v>0.0454946206383427</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">((G41-$I41)/$J41)*$H41</f>
+        <v>-0.0103835748739098</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1.53682584278547</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.05063535506154</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.274443114715244</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1.33103375701468</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1.96724408952562</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1.77178356513544</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">((B42-I42)/J42)*H42</f>
+        <v>-0.241554447555623</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">((C42-$I42)/$J42)*$H42</f>
+        <v>-0.295845718684795</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <f aca="false">((D42-$I42)/$J42)*$H42</f>
+        <v>-0.382520518856798</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <f aca="false">((E42-$I42)/$J42)*$H42</f>
+        <v>-0.264534563800027</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">((F42-$I42)/$J42)*$H42</f>
+        <v>-0.193491076669639</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">((G42-$I42)/$J42)*$H42</f>
+        <v>-0.215317501893209</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>5.98029249192052</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>6.94940323746074</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>7.84894481208914</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>10.3682163480957</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>6.20395396043622</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>6.90245185263724</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>7.46499460251805</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>7.45210548803935</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>9.70612282648295</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>7.47376186966819</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>5.33097550011178</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>6.33413283079994</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">((B44-I44)/J44)*H44</f>
+        <v>0.00209206265145829</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">((C44-$I44)/$J44)*$H44</f>
+        <v>0.00199030648452118</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <f aca="false">((D44-$I44)/$J44)*$H44</f>
+        <v>0.0197851802090759</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">((E44-$I44)/$J44)*$H44</f>
+        <v>0.00216127791843307</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">((F44-$I44)/$J44)*$H44</f>
+        <v>-0.0147554565780649</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">((G44-$I44)/$J44)*$H44</f>
+        <v>-0.0068357934410531</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>6.43357301171162</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>6.39461410259313</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>7.44683222346198</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>7.9520499909246</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>4.91224476133813</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>5.79855004307433</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>-0.129</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">((B45-I45)/J45)*H45</f>
+        <v>0.0573127209928007</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">((C45-$I45)/$J45)*$H45</f>
+        <v>0.0606631871769908</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <f aca="false">((D45-$I45)/$J45)*$H45</f>
+        <v>-0.0298275712177303</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <f aca="false">((E45-$I45)/$J45)*$H45</f>
+        <v>-0.0732762992195156</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">((F45-$I45)/$J45)*$H45</f>
+        <v>0.188146950524921</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">((G45-$I45)/$J45)*$H45</f>
+        <v>0.111924696295608</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1.46656151793953</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.920132759963754</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.267791609017452</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1.65738373909819</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1.18547940711541</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.953174756908393</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">((B46-I46)/J46)*H46</f>
+        <v>-0.0939600415056364</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">((C46-$I46)/$J46)*$H46</f>
+        <v>-0.175013640605377</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <f aca="false">((D46-$I46)/$J46)*$H46</f>
+        <v>-0.271777577995745</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <f aca="false">((E46-$I46)/$J46)*$H46</f>
+        <v>-0.0656547453671018</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">((F46-$I46)/$J46)*$H46</f>
+        <v>-0.135653887944548</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">((G46-$I46)/$J46)*$H46</f>
+        <v>-0.170112411058588</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>12.9787832482184</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>14.4981112837869</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>18.6588235172478</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>20.4924490692877</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>9.34914347201045</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>12.1039635873325</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">((B47-I47)/J47)*H47</f>
+        <v>-0.215151329928736</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">((C47-$I47)/$J47)*$H47</f>
+        <v>-0.275924451351476</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <f aca="false">((D47-$I47)/$J47)*$H47</f>
+        <v>-0.442352940689912</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <f aca="false">((E47-$I47)/$J47)*$H47</f>
+        <v>-0.515697962771508</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">((F47-$I47)/$J47)*$H47</f>
+        <v>-0.069965738880418</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">((G47-$I47)/$J47)*$H47</f>
+        <v>-0.1801585434933</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>11.557864307441</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>11.9330714222789</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>12.5363870564715</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>10.1341963763781</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>9.47815028350554</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>11.7279569792102</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">SUM(K33:K47)</f>
+        <v>0.984586352205493</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">SUM(L33:L47)</f>
+        <v>0.862915255030263</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <f aca="false">SUM(M33:M47)</f>
+        <v>0.0203607986828477</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <f aca="false">SUM(N33:N47)</f>
+        <v>-0.0990642344777274</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">SUM(O33:O47)</f>
+        <v>1.63981375653394</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">SUM(P33:P47)</f>
+        <v>0.976815753348477</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5389,27 +7915,94 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>100</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -5441,13 +8034,13 @@
       <c r="K3" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>102</v>
+      <c r="P3" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.152</v>
@@ -5479,16 +8072,24 @@
       <c r="K4" s="0" t="n">
         <v>0.122</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="L4" s="0" t="n">
+        <f aca="false">AVERAGE(B4:K4)</f>
+        <v>0.1437</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">STDEV(B4:L4)</f>
+        <v>0.0418450713943709</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>-0.129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.035</v>
@@ -5520,16 +8121,24 @@
       <c r="K5" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="L5" s="0" t="n">
+        <f aca="false">AVERAGE(B5:K5)</f>
+        <v>0.0335</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">STDEV(B5:L5)</f>
+        <v>0.0114127122105133</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>-0.115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.122</v>
@@ -5561,24 +8170,32 @@
       <c r="K6" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="L6" s="0" t="n">
+        <f aca="false">AVERAGE(B6:K6)</f>
+        <v>0.1388</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">STDEV(B6:L6)</f>
+        <v>0.0319806191309674</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>-0.102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>-0.099</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.096</v>
@@ -5610,16 +8227,24 @@
       <c r="K8" s="0" t="n">
         <v>0.082</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="L8" s="0" t="n">
+        <f aca="false">AVERAGE(B8:K8)</f>
+        <v>0.0801</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">STDEV(B8:L8)</f>
+        <v>0.0190916211988401</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>-0.044</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.148</v>
@@ -5651,16 +8276,24 @@
       <c r="K9" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="L9" s="0" t="n">
+        <f aca="false">AVERAGE(B9:K9)</f>
+        <v>0.0964</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">STDEV(B9:L9)</f>
+        <v>0.0309554518623134</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>-0.043</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.107</v>
@@ -5692,16 +8325,24 @@
       <c r="K10" s="0" t="n">
         <v>0.204</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="L10" s="0" t="n">
+        <f aca="false">AVERAGE(B10:K10)</f>
+        <v>0.1778</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">STDEV(B10:L10)</f>
+        <v>0.0529240965912504</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.141</v>
@@ -5733,24 +8374,32 @@
       <c r="K11" s="0" t="n">
         <v>0.061</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="L11" s="0" t="n">
+        <f aca="false">AVERAGE(B11:K11)</f>
+        <v>0.14</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">STDEV(B11:L11)</f>
+        <v>0.0342607647316869</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>0.065</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>0.134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.026</v>
@@ -5782,16 +8431,24 @@
       <c r="K13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="L13" s="0" t="n">
+        <f aca="false">AVERAGE(B13:K13)</f>
+        <v>0.0298</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">STDEV(B13:L13)</f>
+        <v>0.0188031912185139</v>
+      </c>
+      <c r="O13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>0.134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.034</v>
@@ -5823,24 +8480,32 @@
       <c r="K14" s="0" t="n">
         <v>0.061</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="L14" s="0" t="n">
+        <f aca="false">AVERAGE(B14:K14)</f>
+        <v>0.0363</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">STDEV(B14:L14)</f>
+        <v>0.0126336851314254</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>0.139</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>0.158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.059</v>
@@ -5872,16 +8537,24 @@
       <c r="K16" s="0" t="n">
         <v>0.061</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="L16" s="0" t="n">
+        <f aca="false">AVERAGE(B16:K16)</f>
+        <v>0.0555</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">STDEV(B16:L16)</f>
+        <v>0.017585505395069</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.018</v>
@@ -5913,16 +8586,24 @@
       <c r="K17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="L17" s="0" t="n">
+        <f aca="false">AVERAGE(B17:K17)</f>
+        <v>0.0058</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">STDEV(B17:L17)</f>
+        <v>0.00679411510058521</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.01</v>
@@ -5954,10 +8635,18 @@
       <c r="K18" s="0" t="n">
         <v>0.041</v>
       </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">AVERAGE(B18:K18)</f>
+        <v>0.0142</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">STDEV(B18:L18)</f>
+        <v>0.0243589819163281</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.044</v>
@@ -5989,10 +8678,18 @@
       <c r="K19" s="0" t="n">
         <v>0.041</v>
       </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">AVERAGE(B19:K19)</f>
+        <v>0.0454</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">STDEV(B19:L19)</f>
+        <v>0.0333142612104786</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.015</v>
@@ -6024,7 +8721,1165 @@
       <c r="K20" s="0" t="n">
         <v>0.02</v>
       </c>
-    </row>
+      <c r="L20" s="0" t="n">
+        <f aca="false">AVERAGE(B20:K20)</f>
+        <v>0.0047</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">STDEV(B20:L20)</f>
+        <v>0.0069</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.08092485549133</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.126530612244898</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.151612903225806</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.146153846153846</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.147368421052632</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.148214285714286</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.145454545454545</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.147619047619048</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.109826589595376</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.120408163265306</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.135483870967742</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.107692307692308</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.115789473684211</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.106508875739645</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.133928571428571</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.127272727272727</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.128571428571429</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.041040462427746</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.083673469387755</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.048387096774194</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.068461538461539</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.056842105263158</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.071005917159763</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.060909090909091</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.066666666666667</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.104046242774566</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.151020408163265</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.12258064516129</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.146153846153846</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.167857142857143</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.145454545454545</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.073809523809524</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.08092485549133</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.055102040816327</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.054838709677419</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.038461538461539</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.051578947368421</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.106508875739645</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.057142857142857</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.062727272727273</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.057142857142857</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.000173410404624</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>4.08163265306122E-005</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.000645161290323</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>7.69230769230769E-005</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.000105263157895</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.000118343195266</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>3.57142857142857E-005</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>9.09090909090909E-005</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.000238095238095</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.063583815028902</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.095918367346939</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.106451612903226</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.123076923076923</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.092631578947368</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.100591715976331</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.081818181818182</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.088095238095238</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>9.82658959537572E-005</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.002244897959184</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>3.2258064516129E-005</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>7.69230769230769E-005</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.000105263157895</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.006508875739645</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.001607142857143</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.000909090909091</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.011904761904762</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.179190751445087</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.13265306122449</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.083870967741936</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.126315789473684</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.118343195266272</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.128571428571429</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.136363636363636</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.130952380952381</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.115606936416185</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.053061224489796</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.038709677419355</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.092307692307692</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.050526315789474</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.057396449704142</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.053571428571429</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.043636363636364</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.069047619047619</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.045664739884393</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.042857142857143</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.029354838709677</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.043846153846154</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.069473684210526</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.06508875739645</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.069642857142857</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.076363636363636</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.073809523809524</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.092485549132948</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.048979591836735</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.07741935483871</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.084615384615385</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.069473684210526</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.058579881656805</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.066071428571429</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.068181818181818</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.00635838150289</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.040816326530612</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.07741935483871</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.027692307692308</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.002736842105263</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.000591715976331</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.000178571428571</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.004545454545455</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.052380952380952</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.08092485549133</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.055102040816327</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.087096774193548</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.032307692307692</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.052631578947368</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.001183431952663</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.041071428571429</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.046363636363636</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.011904761904762</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>8.29</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5" s="13" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" s="13" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" s="13" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.24464081443754</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3.0181024219292</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>7.46499460251805</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.20663392971581</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>6.3194616991754</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>6.43357301171162</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>7.45515211009629</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>11.557864307441</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1.46656151793953</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.521293956442031</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>12.9787832482184</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1.53682584278547</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>15.8071192022808</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>3.13741962044185</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
